--- a/笔记/知识点梳理/安全/ASVS.xlsx
+++ b/笔记/知识点梳理/安全/ASVS.xlsx
@@ -18310,6 +18310,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应用程序在处理错误和异常时可能会生成错误消息或堆栈跟踪信息。当这些信息中包含如会话ID、软件版本、框架版本和个人信息等敏感数据时，它们可能为恶意攻击者提供了进一步利用应用程序的信息和机会。因此，为了增加应用程序的安全性，错误输出必须经过筛选和清理，确保它们不会泄露任何有助于攻击者的信息。
 </t>
     </r>
@@ -18496,6 +18503,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当面对不明确或异常的请求时，安全控制的错误处理逻辑应该默认为拒绝访问。这意味着，除非明确地允许，否则所有的行为、请求或数据都应该被拒绝。这种“拒绝默认”的策略确保了在出现意外或攻击尝试时，系统的默认行为倾向于安全。
 </t>
     </r>
@@ -18660,6 +18674,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">安全日志记录是信息安全管理的一个关键部分，特别是对于识别和响应安全事件。当涉及到安全相关的失败，例如认证失败、权限违规尝试或其他异常活动时，正确和完整的日志记录变得尤为重要。ASVS要求确保安全日志记录控制能够成功捕获和记录这些关键的安全事件。
 </t>
     </r>
@@ -18868,6 +18889,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日志记录的目的不仅是捕获事件，还要确保日志中有足够的信息来支持后续的分析和响应。对于安全事件，能够确定事件的时间、来源、影响的对象和执行的操作是至关重要的。因此，ASVS要求每个日志事件都包括必要的详细信息，以便在事件发生后可以根据时间节点进行详细的调查和取证。
 </t>
     </r>
@@ -19054,6 +19082,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日志是应用程序记录其行为的方式，但如果不正确地处理，日志本身可能成为安全隐患。特别是，如果日志条目包含来自不受信任的数据源的数据（例如用户输入），并且这些数据在日志查看或分析工具中被解释执行，那么可能存在注入攻击的风险。为此，ASVS要求验证包含来自不受信任的数据源的所有事件在日志查看软件中不会执行代码。
 </t>
     </r>
@@ -19240,6 +19275,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">安全日志包含关于系统行为和可能的攻击尝试的重要信息。如果攻击者可以访问或修改这些日志，他们可能会掩盖其痕迹、删除关键证据或进一步破坏系统。因此，ASVS要求验证安全日志是否充分保护，以抵御未经授权的访问和修改。
 </t>
     </r>
@@ -19452,6 +19494,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日志记录在许多应用中是关键的安全和操作机制，用于捕获、分析和响应系统中的事件。然而，日志中的信息如果被不当处理或暴露，可能会导致信息泄露或其他安全问题。特别是，日志不应包含敏感数据，如由法律定义的个人信息、组织定义的敏感数据，以及可能助攻击者一臂之力的认证数据。ASVS特别强调了确保这些敏感信息不被记录。
 </t>
     </r>
@@ -19660,6 +19709,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日志注入攻击发生在攻击者通过注入恶意或意外的日志内容来操纵或污染日志条目时。这些恶意内容可能包括不可打印的字符、字段分隔符或其他控制字符，它们可能会干扰日志分析工具的操作，误导管理员，或掩盖真正的攻击尝试。为了确保日志的完整性和准确性，任何记录到日志中的数据都应该进行适当的编码或清理，以防止这种注入攻击。
 </t>
     </r>
@@ -19868,6 +19924,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在日志条目中，能够区分受信任源和不受信任源的数据是至关重要的。受信任的数据通常是系统或应用程序内部生成的，而不受信任的数据则是用户或第三方服务提供的。不受信任的数据可能包括恶意内容，因此必须对其进行适当的处理和验证，以避免潜在的安全威胁。通过清晰地标记这两种数据来源，可以确保日志的准确性和完整性。
 </t>
     </r>
@@ -20033,6 +20096,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">不可否认性是信息安全中的一个关键概念，指的是某一行为或事件发生后，涉及的双方都无法否认这一行为或事件。在审计日志的上下文中，不可否认性意味着当某个用户执行了某项关键操作（如转账、更改配置等）时，系统能够为此提供明确、不可伪造的证据，证明这一行为确实发生，且是由该用户执行的。
 </t>
     </r>
@@ -20244,6 +20314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">安全日志的完整性是信息安全中的核心要求。日志记录系统和用户活动，提供了关键的审计轨迹和事件响应功能。如果日志被篡改、删除或以其他方式修改，那么审计的有效性就会大打折扣。因此，确保安全日志不被未经授权的修改是至关重要的。
 </t>
     </r>
@@ -20638,6 +20715,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日志的时间戳是审计和安全分析的核心组件。确保日志记录具有准确的时间戳对于事件重建、安全事件响应、法规遵从以及其他关键安全活动来说至关重要。为此，所有产生日志的系统、应用程序和设备的时间源都应同步，并确保与可信的时间源一致。
 </t>
     </r>
@@ -20849,6 +20933,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在Web应用程序中，客户端缓存经常被用来提高性能，减少不必要的服务器请求。然而，对于包含敏感信息的表单，客户端缓存可能会成为一个安全风险，因为攻击者可以通过浏览器缓存访问存储的敏感数据。禁用客户端缓存和自动完成功能确保敏感数据不会被不当存储和潜在泄露。
 </t>
     </r>
@@ -21013,6 +21104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当应用程序处理敏感数据时，识别这些数据并确保它们受到适当的保护至关重要。一个明确的数据处理策略将指导开发、运维和安全团队了解如何妥善处理这些数据，确保其安全性和满足相关的法规要求。
 </t>
     </r>
@@ -21265,6 +21363,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在网络通信中，将敏感数据放在URL参数中是一个不安全的做法。URL很容易被记录（例如，浏览器历史、网络日志、缓存或者参照页数据等），从而暴露其中的信息。为了增强数据的隐私和安全，敏感数据应该总是通过HTTP消息体或头部进行发送。
 </t>
     </r>
@@ -21479,6 +21584,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">缓存是一个优化机制，旨在加速数据的访问并减少不必要的数据传输。但对于敏感数据，缓存可能会带来安全风险，因为它可能会导致数据在不受控制的地方（如浏览器或代理服务器）被存储。为了减轻这种风险，应使用HTTP响应头来指导客户端和中间代理不要缓存敏感内容。
 </t>
     </r>
@@ -21646,6 +21758,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当被授权的用户访问敏感数据后，应用程序可能会在后台处理或存储这些数据的缓存或临时副本。这种行为可能是为了优化性能、快速响应或其他原因。然而，这些临时存储的数据应该得到与原始数据相同的保护，确保它们不被未经授权的用户访问，并且在使用完毕后及时清除或失效。
 </t>
     </r>
@@ -21858,6 +21977,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">为了满足各种法规和合规性要求，组织通常需要制定数据保留策略来确定敏感数据应保留多长时间。一旦这些数据的生命周期结束，它们应该被彻底、安全地从系统中删除，以减少数据泄露的风险并确保隐私权。因此，应用程序应该有明确的机制来删除不再需要的敏感数据。
 </t>
     </r>
@@ -22070,6 +22196,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应用程序应设计为使请求中的参数数量最小化。每个附加参数都可能为潜在攻击者提供了额外的攻击向量。隐藏字段、Ajax变量、cookies和HTTP标头值都可以传递数据，并可能成为恶意注入、篡改或其他安全威胁的来源。
 </t>
     </r>
@@ -22279,6 +22412,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应用程序应具有检测和警报异常数量的数据收集请求的能力。例如，恶意用户可能会尝试使用自动化工具（如屏幕抓取工具）来捕获大量数据。正确配置的检测和报警系统可以在这种活动发生时及时识别和响应。
 </t>
     </r>
@@ -22509,6 +22649,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在现代Web应用中，客户端存储机制如HTML5本地存储、会话存储、IndexedDB、常规Cookie、Flash Cookie等，为开发者提供了丰富的数据存储选择。但在使用这些技术时，需要确保不在客户端存储敏感数据或个人可识别信息(PII)。这是因为，与服务器端存储相比，客户端存储的数据更容易被恶意用户或恶意软件访问和篡改。
 </t>
     </r>
@@ -22720,6 +22867,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">对于许多应用程序和系统，访问敏感数据是必不可少的。但是，为了确保数据的完整性和确保只有经授权的用户可以访问这些数据，对这些访问行为进行记录是至关重要的。对于那些收集数据的应用程序，尤其是在数据保护指令或其他法规要求的情况下，记录访问敏感数据的行为不仅是最佳实践，而且很可能是法律要求。
 </t>
     </r>
@@ -22931,6 +23085,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在内存中维护敏感信息是很多应用程序的常态，例如处理密码、密钥、身份令牌等。但这些信息在内存中的存在可能会受到某些攻击，例如内存泄漏或数据残留，从而使攻击者能够捕获这些数据。为减少这种风险，当敏感数据不再需要时，应将其在内存中的表示零重写。
 </t>
     </r>
@@ -23117,6 +23278,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">传输层安全性（TLS）是互联网上信息安全传输的基础。为了确保TLS的安全性，服务器证书必须由受信任的证书颁发机构（CA）签署。这意味着存在一个从受信任的CA到给定服务器证书的路径构建（证书链），每一个证书都是有效的。确保这种路径构建的存在和正确性对于防止中间人攻击和其他TLS攻击至关重要。
 </t>
     </r>
@@ -23303,6 +23471,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">传输层安全（TLS）的使用应当不仅仅限于外部用户到应用服务器的连接。所有的连接，无论是外部还是后端（例如，应用服务器与数据库或其他微服务之间的连接）都应该使用TLS进行加密，特别是当这些连接涉及敏感数据或功能时。此外，连接应该配置为不允许回退到非安全或未加密的协议，并且应当使用最新和最安全的加密算法。
 </t>
     </r>
@@ -23492,6 +23667,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当后端TLS连接失败时，应用程序应该有能力捕捉并记录这些事件。这样的日志记录对于监视和响应潜在的安全事件至关重要，它可能是系统配置错误、证书过期、中间人攻击或其他安全问题的迹象。
 </t>
     </r>
@@ -23681,6 +23863,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当应用程序使用客户端证书进行身份验证或其他安全操作时，必须确保客户端证书的证书路径是通过已知的、受信任的证书集合来建立的，并且对于所有证书，都有考虑撤销信息（如CRL（证书撤销列表）或OCSP（在线证书状态协议））。
 </t>
     </r>
@@ -23867,6 +24056,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当应用程序与外部系统（例如数据库、第三方服务、其他内部应用程序）进行通信时，对于涉及敏感信息或功能的连接，必须进行适当的身份验证。这是为了确保只有经过授权和验证的系统可以接触到敏感的数据或功能。
 </t>
     </r>
@@ -24075,6 +24271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序使用的是标准的、被广泛接受的TLS实现，并且在安全配置和操作模式下运行。使用非标准或自定义实现的TLS可能导致未知的安全漏洞和不稳定的加密，因此应该避免。
 </t>
     </r>
@@ -24264,6 +24467,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求关注于HTTP Public Key Pinning (HPKP)的正确实施。HPKP是一种安全特性，可以允许网站告诉浏览器只应该接受与给定公钥相关的特定证书。如果网站的TLS证书更改、过期或由不被信任的CA签署（可能是因为中间人攻击），浏览器将不会建立连接并将其视为非法。
 </t>
     </r>
@@ -24436,6 +24646,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求关注于HTTP Strict Transport Security (HSTS)的正确实施。HSTS是一个Web安全策略机制，其作用是使Web服务器强制客户端（如Web浏览器）仅通过安全HTTPS连接与其通信，而不是使用非加密的HTTP。
 </t>
     </r>
@@ -24646,6 +24863,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这项要求关注于HSTS (HTTP Strict Transport Security) 的预加载功能。HSTS的预加载是一种机制，它允许网站运营者提交他们的域名，要求Web浏览器在用户第一次访问该域名时默认使用HTTPS，从而消除了第一次访问时的中间人攻击的风险。
 </t>
     </r>
@@ -24876,6 +25100,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">这项要求关注于“向前保密”（PFS, Perfect Forward Secrecy）的使用，它是一种加密系统的属性，使得即使长期的私钥泄露，过去的会话也不会被解密。
 </t>
     </r>
@@ -25064,6 +25295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保在线证书状态协议（OCSP）Stapling已被启用并正确配置。OCSP Stapling是一种TLS扩展，允许服务器在TLS握手过程中提供OCSP响应，证明其证书仍然有效，而不需要客户端单独向证书颁发机构（CA）查询。
 </t>
     </r>
@@ -25276,6 +25514,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保整个证书链（从服务器证书到中间证书，再到根证书）都使用了强大的加密算法、密码和协议。由于证书链的每个证书都是为了建立信任而存在的，因此链中的任何一个弱点都可能被恶意攻击者利用。
 </t>
     </r>
@@ -25485,6 +25730,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">确保TLS设置与当前的最新实践是一致的，要求开发者定期更新和检查其TLS配置，确保它们与行业的最佳实践相匹配。这样可以确保应用程序在面对新的威胁和已知的弱点时，具有最佳的加密强度和安全性。
 </t>
     </r>
@@ -25738,6 +25990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">确保应用程序仅接受已定义的HTTP请求方法，并明确地阻止未使用的方法。这是为了预防针对不恰当配置的HTTP方法的潜在攻击。
 </t>
     </r>
@@ -25972,6 +26231,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应确保每一个HTTP响应都包含指定安全字符集的内容类型标头。这是为了预防某些类型的攻击，如跨站脚本攻击 (XSS)，它们可能会利用字符集的歧义性。
 </t>
     </r>
@@ -26184,6 +26450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应用程序应验证并确保由信任的代理或单点登录(SSO)设备添加的HTTP头（例如匿名令牌或其他认证令牌）是否经过应用程序的身份验证。
 </t>
     </r>
@@ -26437,6 +26710,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">应用程序应使用合适的X-FRAME-OPTIONS头部，以防止页面内容被包含在第三方站点的&lt;iframe&gt;、&lt;frame&gt;、&lt;embed&gt;或&lt;object&gt;标签中。这有助于防止点击劫持攻击，也被称为UI redressing攻击（也被称为“点击劫持”（Clickjacking）攻击），UI Redressing（或点击劫持）是一种恶意技术，攻击者使用它来诱骗用户在不知情的情况下点击一个页面上的不可见的元素。这是通过叠加一个透明的恶意网页在一个正常的网页上来实现的。因为这个恶意网页是透明的，所以用户看到的是下面的正常网页，但当他们点击或与网页互动时，实际上他们正在与上面的恶意网页互动。。
 </t>
     </r>
@@ -26625,6 +26905,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">确保HTTP头部或HTTP响应中不暴露系统组件的详细版本信息。这是为了防止攻击者利用这些信息进行针对性的攻击。
 </t>
     </r>
@@ -26856,6 +27143,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">确保所有API响应都包含以下HTTP标头：
 1. X-Content-Type-Options: nosniff：此头部指示浏览器不应尝试猜测给定资源的MIME类型。相反，浏览器应完全信任页面所声明的内容类型。
 2. Content-Disposition: attachment; filename="api.json"：此头部指示浏览器以附件形式展示内容，而不是直接在浏览器中显示。例如，它可能会触发文件下载功能而不是在浏览器窗口中显示JSON数据。
@@ -27049,6 +27343,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">内容安全策略（CSP）是一种附加的安全层，它有助于减轻DOM-based、XSS、JSON和JavaScript注入等漏洞。CSP通过限制页面可以加载哪些资源来实现这一点，这包括外部脚本、样式和其他各种资源。
 </t>
     </r>
@@ -27284,6 +27585,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">X-XSS-Protection 是一个HTTP头部，最初由Microsoft为Internet Explorer实施，后来被Chrome和Safari采纳。它可以用来启用或禁用浏览器内置的反射型跨站脚本（XSS）过滤器。当配置为“1; mode=block”，如果浏览器检测到跨站脚本攻击，它会不加载页面，从而帮助防止某些类型的跨站脚本攻击。
 </t>
     </r>
@@ -27493,6 +27801,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">沙盒化、容器化和隔离是限制应用程序、进程或用户可以访问和执行的操作的技术。这些技术旨在确保，即使恶意活动或攻击者能够利用某些漏洞进入一个应用程序或服务，他们也不能轻易地扩大攻击范围或影响其他应用程序和系统部分。
 </t>
     </r>
@@ -27773,6 +28088,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序没有任何后门、隐藏功能（如“复活节彩蛋”）或其他可能被恶意使用的代码。第三方库也可能包含这些风险，所以它们同样需要进行审查。
 </t>
     </r>
@@ -28093,6 +28415,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序在处理业务逻辑时严格按照预定的流程。例如，在在线购物的场景中，用户首先应选择商品，然后输入地址，最后支付。如果允许用户在没有选择任何商品的情况下付款，那么这可能是一个业务逻辑错误。同样地，如果交易过程的时间比正常情况下的时间快得多，这也可能是一个潜在的问题标志。
 </t>
     </r>
@@ -28347,6 +28676,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求着重于确保应用程序实施了业务层面的限制，对于每一个用户来说这些限制都是正确的，并且能够在面对自动化或异常的攻击时生成配置的警报和自动响应。
 </t>
     </r>
@@ -28644,6 +28980,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">URL重定向和转发是Web应用程序中常见的功能，但如果不正确地实施，可能会被攻击者滥用，导致所谓的开放式重定向攻击或未经验证的转发攻击。为了减少这种风险，应该只允许URL重定向和转发到一个预先定义的、被列入白名单的目的地址，或者在用户被重定向到可能是恶意的或不受信任的内容之前，给出明确的警告。
 </t>
     </r>
@@ -28878,6 +29221,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求关注于确保应用程序在处理上传的文件时采取适当的安全措施，以避免受到诸如路径遍历、本地文件包含、文件MIME类型欺骗、操作系统命令注入等安全威胁。
 </t>
     </r>
@@ -29222,6 +29572,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序在接受从外部不受信任的源上传的文件时，能够正确地验证该文件的类型并执行恶意软件扫描。其目的是确保上传的文件不含有恶意代码或不会导致其他安全问题。
 </t>
     </r>
@@ -29478,6 +29835,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序在处理包含、类加载或反射功能时，不会使用从不受信任的来源接收到的数据。其目的是避免攻击者通过远程或本地文件包含漏洞来加载或执行恶意代码。
 </t>
     </r>
@@ -29712,6 +30076,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序在处理跨域资源共享（CORS）策略时，不会使用从不受信任的来源接收到的数据。这样可以避免攻击者利用CORS策略漏洞，注入恶意内容或不适当地放宽跨域访问控制。
 </t>
     </r>
@@ -29946,6 +30317,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序将从不受信任的来源接收的文件存储在webroot之外，并且这些文件只有有限的访问权限。此外，这些文件应该只能在经过适当身份验证后访问。
 </t>
     </r>
@@ -30203,6 +30581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保Web或应用程序服务器的默认配置已被设置，使其拒绝访问远程资源或位于Web和应用程序服务器之外的系统。这意味着，除非明确允许，否则服务器不应试图连接或访问其他系统或远程资源。
 </t>
     </r>
@@ -30481,6 +30866,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求的目标是确保应用程序不执行来自不可信任的来源的数据。上传的数据可能包含恶意代码，如果被执行，可能会导致应用程序和/或其所在的系统被攻击或损坏。
 </t>
     </r>
@@ -30804,6 +31196,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求的目标是避免使用已知具有安全问题或不再受支持的客户端技术，特别是那些不符合W3C浏览器标准的技术。
 </t>
     </r>
@@ -31062,6 +31461,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求的目标是确保应用程序不依赖设备特定的ID值（如UDID、IMEI号码等）作为认证令牌，因为这些值在很大程度上是静态的、可以被其他应用程序检索，且不可能被用户更改。
 </t>
     </r>
@@ -31293,6 +31699,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保移动应用不将敏感数据存储在设备上可轻易访问的地方，特别是在未经加密的共享资源上，如SD卡或共享文件夹。这是因为，如果攻击者获得物理访问权，这些位置的数据可以轻松地被读取和复制。
 </t>
     </r>
@@ -31546,6 +31959,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保移动应用不会将敏感数据存储在设备上容易被访问的位置，尤其是在未经加密的共享资源，例如SD卡或共享文件夹。当攻击者获得物理访问权时，这些地方的数据可以被轻易地读取和复制。
 </t>
     </r>
@@ -31799,6 +32219,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保移动应用程序在其生命周期中动态生成关键的安全资产，例如密钥、API令牌和密码。固定或硬编码的资产容易受到反编译和其他静态分析技术的威胁，增加了潜在的安全风险。
 </t>
     </r>
@@ -32030,6 +32457,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保移动应用程序在其运行期间不会泄露敏感信息，特别是在应用程序移至后台或将信息写入控制台时。当应用程序进入后台，操作系统可能会为多任务视图获取屏幕截图，如果此时屏幕上显示有敏感信息，它可能会被不当地保存或泄露。
 </t>
     </r>
@@ -32261,6 +32695,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求意味着移动应用程序仅应请求它实际需要的权限，而不是请求超出其功能所需的额外权限。这种“最小权限”原则可以减少由于应用程序受到攻击或误用导致的潜在风险。
 </t>
     </r>
@@ -32536,6 +32977,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序的敏感代码不会预测地出现在内存中的固定位置。使用像地址空间布局随机化（ASLR）这样的技术可以提高应用程序对于各种内存相关的攻击，如缓冲区溢出和跳转到已知地址的攻击的防御能力。
 </t>
     </r>
@@ -32788,6 +33236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求的目的是确保移动应用程序不会对同一设备上的其他移动应用程序意外或故意地公开其内部活动、内容或其他关键组件。导出组件可能意味着其他应用程序可以与这些组件互动，可能导致数据泄露、非法访问或其他恶意行为。
 </t>
     </r>
@@ -33019,6 +33474,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">要求确保移动应用程序在处理敏感信息（例如密码、私钥、用户数据等）时，一旦这些信息不再需要，它们会立即从内存中安全地删除。这是为了减少攻击者通过内存转储攻击从运行时环境中提取敏感信息的风险。
 </t>
     </r>
@@ -33253,6 +33715,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保移动应用程序对其活动、内容或内容提供者属性的输入进行了适当的验证。这是为了确保应用程序只接受预期和合法的输入，从而避免潜在的安全漏洞，如内容注入、恶意活动启动或不受控制的数据泄露。
 </t>
     </r>
@@ -33485,6 +33954,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求的目标是确保应用程序的客户端和服务器之间使用相同的输出编码风格。当客户端和服务器使用不同的编码风格时，可能会导致数据解析的差异、数据损坏或安全漏洞，如注入攻击。
 </t>
     </r>
@@ -33742,6 +34218,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保只有Web服务应用程序的管理员可以访问管理员和管理功能。确保管理功能受到保护并限制访问是任何安全应用程序的关键组成部分，因为这些功能通常具有增加、删除或修改系统配置和用户数据的能力。
 </t>
     </r>
@@ -34040,6 +34523,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序在接受XML或JSON数据前对其进行恰当的模式验证。这样可以避免各种类型的攻击，例如XML外部实体（XXE）攻击和不良构造的数据结构可能导致的应用程序崩溃。
 </t>
     </r>
@@ -34294,6 +34784,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保所有应用程序接受的输入数据都经过长度限制。通过对输入的长度进行限制，可以预防和降低许多常见的应用程序攻击，如缓冲区溢出和拒绝服务攻击。
 </t>
     </r>
@@ -34571,6 +35068,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保基于SOAP的Web服务在互操作性方面至少达到Web服务-互操作性（WS-I）的基本配置文件要求，并具体强调了TLS加密的实施。WS-I基本配置文件是为了确保Web服务之间能够有效且安全地互相通信的一组标准。
 </t>
     </r>
@@ -34803,6 +35307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保系统使用基于会话的认证和授权机制，而非依赖于静态凭据，如“API键”。基于会话的认证意味着用户在首次验证其身份后，系统会为其提供一个临时的会话标识符，该标识符在用户与应用进行交互时用于识别。与静态API键相比，这种方法更为安全，因为它允许更细致的访问控制，并且可以更容易地撤销或刷新。
 </t>
     </r>
@@ -35057,6 +35568,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求关注REST服务的安全性，确保其对跨站请求伪造（CSRF）攻击有所防范。通过执行一种或多种以下的方法，可以增强对CSRF的防御：ORIGIN检查、双重提交cookie模式、CSRF nonces和referrer检查。
 </t>
     </r>
@@ -35311,6 +35829,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保REST服务只处理预期的Content-Type，从而避免潜在的输入欺骗或其他相关的攻击。对Content-Type的明确检查可确保数据是按照预期的格式传递和接收的，例如“application/xml”或“application/json”。
 </t>
     </r>
@@ -35587,6 +36112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求着重于确保消息的有效负载（例如，客户端到服务端的请求或反之）在传输中不被篡改。通过对消息有效负载进行签名，可以验证其完整性和来源的真实性。具体地说，对于JSON消息，可以使用JSON Web Signing (JWS)进行签名，而对于SOAP请求，可以使用WSSecurity。
 </t>
     </r>
@@ -35885,6 +36417,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序没有遗留或意外的访问路径，允许用户或攻击者绕过正常的认证和授权机制。这可能是因为早期的开发、调试或忽略的代码遗留下来，或是为了特定的功能而创建的。不太安全的访问路径可能会暴露敏感信息或允许不当的功能。
 </t>
     </r>
@@ -36185,6 +36724,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序中使用的所有组件、库和依赖项都是最新的，并进行了适当的安全配置。不仅要更新组件以消除已知的安全漏洞，还要确保没有任何不必要的或潜在不安全的配置、文件或用户，这可能成为攻击者的目标。
 </t>
     </r>
@@ -36460,6 +37006,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序组件之间的通信是安全的，特别是当这些组件在不同的容器或系统上时。例如，应用程序服务器与数据库服务器之间的数据传输应当是加密的。这样做是为了保护数据不被拦截、查看或篡改。
 </t>
     </r>
@@ -36759,6 +37312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序组件之间的通信采用最小权限原则。特别是当应用程序服务器与数据库服务器进行通信时，它们应该使用权限最小的账户进行认证。这可以确保即使在通信被攻击或误配置的情况下，恶意行为的影响范围也受到限制。
 </t>
     </r>
@@ -37014,6 +37574,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序的构建和部署流程设计得足够安全，从源代码管理到最终的生产部署，所有步骤都需要考虑安全性。
 </t>
     </r>
@@ -37359,6 +37926,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保应用程序的构建和部署流程设计得足够安全，从源代码管理到最终的生产部署，所有步骤都需要考虑安全性。
 </t>
     </r>
@@ -37702,6 +38276,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求确保授权管理员可以核实所有与安全相关的配置的完整性，防止任何未经授权或恶意的修改。这包括系统配置、应用程序配置、网络配置和其他与安全相关的设置。
 </t>
     </r>
@@ -38004,6 +38585,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求要求所有应用程序组件（例如代码库、二进制文件、库、依赖项等）都经过数字签名，以确保它们的真实性和完整性。数字签名允许接收者验证组件是否是预期的发件人发布的，并且在传输过程中没有被篡改。
 </t>
     </r>
@@ -38302,6 +38890,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求强调确保所有第三方组件（例如库、框架、依赖项等）都是从受信任的存储库或官方来源获取的。受信任的存储库意味着它们由其组件的正式维护者或认可的社区维护，并具有一致的安全标准和验证流程。
 </t>
     </r>
@@ -38600,6 +39195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求强调在使用系统级编程语言（如C、C++等）进行软件构建时，应启用所有相关的安全标志和功能。这包括如地址空间布局随机化（ASLR）、数据执行保护（DEP）、安全检查等，以增强软件对常见的低级攻击（如缓冲区溢出、栈溢出等）的防御能力。
 </t>
     </r>
@@ -38898,6 +39500,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此要求旨在确保应用程序使用的资源，如JavaScript库、CSS样式表、Web字体等，都由应用程序自身托管，而不是依赖于第三方的内容分发网络（CDN）或其他外部提供者。这样做可以减少供应链风险、降低第三方恶意修改资源的可能性，并确保应用程序的资源可靠性和完整性。
 </t>
     </r>
@@ -39181,10 +39790,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -39232,28 +39841,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -39265,14 +39852,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -39292,19 +39871,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -39316,33 +39894,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -39361,7 +39939,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -39407,13 +40016,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39425,13 +40106,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39443,25 +40154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39473,61 +40166,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39539,55 +40196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39638,21 +40247,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -39678,27 +40272,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -39726,147 +40309,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39876,7 +40485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -39904,9 +40513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -39918,9 +40524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -40261,8 +40864,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -40281,10 +40884,10 @@
       </c>
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -40292,7 +40895,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40300,7 +40903,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40308,7 +40911,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -40316,7 +40919,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -40324,7 +40927,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -40332,7 +40935,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -40340,7 +40943,7 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -40348,7 +40951,7 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -40356,7 +40959,7 @@
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -40364,7 +40967,7 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40372,7 +40975,7 @@
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -40380,7 +40983,7 @@
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -40388,7 +40991,7 @@
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -40396,7 +40999,7 @@
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -40404,7 +41007,7 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -40471,7 +41074,7 @@
       <c r="B2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>314</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40492,7 +41095,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>315</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -40519,7 +41122,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -40542,7 +41145,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>321</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -40562,13 +41165,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>323</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -40584,7 +41187,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>325</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -40607,7 +41210,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -40620,7 +41223,7 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>330</v>
       </c>
       <c r="H8" s="4"/>
@@ -40632,7 +41235,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>332</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -40676,7 +41279,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>336</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -40700,7 +41303,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>338</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -40727,7 +41330,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>341</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -40751,7 +41354,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -40835,7 +41438,7 @@
       <c r="B2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>346</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40859,7 +41462,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>348</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -40886,7 +41489,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>351</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -40908,7 +41511,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>353</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -40932,7 +41535,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -40956,7 +41559,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>357</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -40983,7 +41586,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -41002,7 +41605,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -41101,7 +41704,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>368</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -41199,7 +41802,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>372</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -41305,7 +41908,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -41332,7 +41935,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>380</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -41359,7 +41962,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -41386,7 +41989,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>386</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -41413,7 +42016,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -41438,7 +42041,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>392</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -41463,7 +42066,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>395</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -41597,7 +42200,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -41621,7 +42224,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -41645,7 +42248,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -41669,13 +42272,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -41691,7 +42294,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>411</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -41713,7 +42316,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>413</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -41737,7 +42340,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -41781,7 +42384,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -41794,7 +42397,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>421</v>
       </c>
       <c r="H11" s="4"/>
@@ -41803,7 +42406,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>422</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -41911,7 +42514,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>427</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -41935,7 +42538,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>429</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -41959,7 +42562,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>431</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -41983,7 +42586,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>433</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -42007,7 +42610,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -42031,7 +42634,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>437</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -42055,7 +42658,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>439</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -42099,7 +42702,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -42112,7 +42715,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>445</v>
       </c>
       <c r="H11" s="4"/>
@@ -42129,9 +42732,9 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -42224,7 +42827,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -42246,7 +42849,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>452</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -42271,13 +42874,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -42293,7 +42896,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -42316,7 +42919,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>460</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -42336,7 +42939,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>462</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -42376,7 +42979,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>466</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -42387,7 +42990,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>468</v>
       </c>
       <c r="H11" s="4"/>
@@ -42406,10 +43009,10 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:F2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>
@@ -42455,7 +43058,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -42479,10 +43082,10 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -42503,10 +43106,10 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="8"/>
@@ -42525,10 +43128,10 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="7"/>
@@ -42545,13 +43148,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="4"/>
@@ -42567,10 +43170,10 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="4"/>
@@ -42587,10 +43190,10 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="4"/>
@@ -42609,10 +43212,10 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="4"/>
@@ -42631,7 +43234,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -42653,7 +43256,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -42675,7 +43278,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -42719,7 +43322,7 @@
     <col min="4" max="4" width="11.1875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.9375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.0234375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1015625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.1015625" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.015625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -42743,7 +43346,7 @@
       <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -42754,7 +43357,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -42769,7 +43372,7 @@
       <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2.1</v>
       </c>
       <c r="H2" s="4"/>
@@ -42778,10 +43381,10 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -42793,7 +43396,7 @@
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>2.2</v>
       </c>
       <c r="H3" s="4"/>
@@ -42802,7 +43405,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -42817,7 +43420,7 @@
       <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2.4</v>
       </c>
       <c r="H4" s="4"/>
@@ -42826,10 +43429,10 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -42841,7 +43444,7 @@
       <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>2.6</v>
       </c>
       <c r="H5" s="4"/>
@@ -42850,7 +43453,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -42865,7 +43468,7 @@
       <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2.7</v>
       </c>
       <c r="H6" s="4"/>
@@ -42874,7 +43477,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -42889,7 +43492,7 @@
       <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2.8</v>
       </c>
       <c r="H7" s="4"/>
@@ -42898,7 +43501,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -42913,7 +43516,7 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>2.9</v>
       </c>
       <c r="H8" s="4"/>
@@ -42922,7 +43525,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -42935,7 +43538,7 @@
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>2.12</v>
       </c>
       <c r="H9" s="4"/>
@@ -42944,7 +43547,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -42957,7 +43560,7 @@
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>2.13</v>
       </c>
       <c r="H10" s="4"/>
@@ -42966,7 +43569,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -42981,7 +43584,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2.16</v>
       </c>
       <c r="H11" s="4"/>
@@ -42990,7 +43593,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -43005,7 +43608,7 @@
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>2.17</v>
       </c>
       <c r="H12" s="4"/>
@@ -43014,7 +43617,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -43029,7 +43632,7 @@
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>2.18</v>
       </c>
       <c r="H13" s="4"/>
@@ -43038,7 +43641,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -43053,7 +43656,7 @@
       <c r="F14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>2.19</v>
       </c>
       <c r="H14" s="4"/>
@@ -43062,7 +43665,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -43077,7 +43680,7 @@
       <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="4"/>
@@ -43086,7 +43689,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -43099,7 +43702,7 @@
       <c r="F16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>96</v>
       </c>
       <c r="H16" s="4"/>
@@ -43108,7 +43711,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -43123,7 +43726,7 @@
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>99</v>
       </c>
       <c r="H17" s="4"/>
@@ -43132,7 +43735,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -43145,7 +43748,7 @@
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="4"/>
@@ -43154,7 +43757,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -43169,7 +43772,7 @@
       <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H19" s="4"/>
@@ -43178,7 +43781,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -43191,7 +43794,7 @@
       <c r="F20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>108</v>
       </c>
       <c r="H20" s="4"/>
@@ -43200,7 +43803,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -43213,7 +43816,7 @@
       <c r="F21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H21" s="4"/>
@@ -43222,7 +43825,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -43237,7 +43840,7 @@
       <c r="F22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="4"/>
@@ -43246,7 +43849,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -43257,7 +43860,7 @@
       <c r="F23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H23" s="4"/>
@@ -43266,7 +43869,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -43277,7 +43880,7 @@
       <c r="F24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>120</v>
       </c>
       <c r="H24" s="4"/>
@@ -43286,7 +43889,7 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -43299,7 +43902,7 @@
       <c r="F25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="4"/>
@@ -43308,7 +43911,7 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -43323,7 +43926,7 @@
       <c r="F26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H26" s="4"/>
@@ -43332,10 +43935,10 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -43347,7 +43950,7 @@
       <c r="F27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H27" s="4"/>
@@ -43364,7 +43967,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:F2"/>
     </sheetView>
@@ -43377,7 +43980,7 @@
     <col min="4" max="4" width="11.1875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.9375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.0234375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1015625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.1015625" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.015625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -43401,7 +44004,7 @@
       <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -43412,7 +44015,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -43427,7 +44030,7 @@
       <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>3.1</v>
       </c>
       <c r="H2" s="4"/>
@@ -43451,7 +44054,7 @@
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>3.2</v>
       </c>
       <c r="H3" s="4"/>
@@ -43460,7 +44063,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -43475,7 +44078,7 @@
       <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>3.3</v>
       </c>
       <c r="H4" s="4"/>
@@ -43484,7 +44087,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -43497,7 +44100,7 @@
       <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>3.4</v>
       </c>
       <c r="H5" s="4"/>
@@ -43506,7 +44109,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -43521,7 +44124,7 @@
       <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>3.5</v>
       </c>
       <c r="H6" s="4"/>
@@ -43530,7 +44133,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -43545,7 +44148,7 @@
       <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>3.6</v>
       </c>
       <c r="H7" s="4"/>
@@ -43554,7 +44157,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -43569,7 +44172,7 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>3.7</v>
       </c>
       <c r="H8" s="4"/>
@@ -43578,7 +44181,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -43591,7 +44194,7 @@
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>146</v>
       </c>
       <c r="H9" s="4"/>
@@ -43600,7 +44203,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -43615,7 +44218,7 @@
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>149</v>
       </c>
       <c r="H10" s="4"/>
@@ -43624,7 +44227,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -43639,7 +44242,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>152</v>
       </c>
       <c r="H11" s="4"/>
@@ -43648,7 +44251,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -43663,7 +44266,7 @@
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>155</v>
       </c>
       <c r="H12" s="4"/>
@@ -43672,7 +44275,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -43687,7 +44290,7 @@
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>158</v>
       </c>
       <c r="H13" s="4"/>
@@ -43696,7 +44299,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -43711,7 +44314,7 @@
       <c r="F14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="4"/>
@@ -43741,7 +44344,7 @@
     <col min="4" max="4" width="11.1875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.9375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.0234375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1015625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.1015625" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.015625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -43765,7 +44368,7 @@
       <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -43776,7 +44379,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -43791,7 +44394,7 @@
       <c r="F2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>164</v>
       </c>
       <c r="H2" s="4"/>
@@ -43800,7 +44403,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -43815,7 +44418,7 @@
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>4.4</v>
       </c>
       <c r="H3" s="4"/>
@@ -43824,7 +44427,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -43839,7 +44442,7 @@
       <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>4.5</v>
       </c>
       <c r="H4" s="4"/>
@@ -43848,7 +44451,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -43863,7 +44466,7 @@
       <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>4.8</v>
       </c>
       <c r="H5" s="4"/>
@@ -43872,7 +44475,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -43887,7 +44490,7 @@
       <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>4.9</v>
       </c>
       <c r="H6" s="4"/>
@@ -43896,7 +44499,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -43909,7 +44512,7 @@
       <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>175</v>
       </c>
       <c r="H7" s="4"/>
@@ -43918,7 +44521,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -43929,7 +44532,7 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>178</v>
       </c>
       <c r="H8" s="4"/>
@@ -43938,7 +44541,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -43951,7 +44554,7 @@
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>181</v>
       </c>
       <c r="H9" s="4"/>
@@ -43960,7 +44563,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -43975,7 +44578,7 @@
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>184</v>
       </c>
       <c r="H10" s="4"/>
@@ -43984,7 +44587,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -43997,7 +44600,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>187</v>
       </c>
       <c r="H11" s="4"/>
@@ -44006,7 +44609,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -44019,7 +44622,7 @@
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="4"/>
@@ -44028,7 +44631,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -44043,7 +44646,7 @@
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>193</v>
       </c>
       <c r="H13" s="4"/>
@@ -44132,7 +44735,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -44156,7 +44759,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -44180,7 +44783,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -44200,7 +44803,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -44215,7 +44818,7 @@
       <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>204</v>
       </c>
       <c r="H6" s="4"/>
@@ -44224,7 +44827,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -44248,7 +44851,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -44272,7 +44875,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -44296,7 +44899,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -44320,7 +44923,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -44344,7 +44947,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -44366,7 +44969,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -44388,7 +44991,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -44410,7 +45013,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>221</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -44432,7 +45035,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -44445,7 +45048,7 @@
       <c r="F16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>225</v>
       </c>
       <c r="H16" s="4"/>
@@ -44454,7 +45057,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -44476,7 +45079,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -44500,7 +45103,7 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -44522,7 +45125,7 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -44544,7 +45147,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -44566,7 +45169,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -44668,7 +45271,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -44714,7 +45317,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -44734,13 +45337,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -44756,7 +45359,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -44776,7 +45379,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -44798,7 +45401,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -44820,7 +45423,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -44842,7 +45445,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -44869,10 +45472,10 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>
@@ -44942,7 +45545,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -44964,10 +45567,10 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D4" s="8"/>
@@ -44986,7 +45589,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -45008,13 +45611,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>266</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -45030,7 +45633,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -45052,7 +45655,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -45074,7 +45677,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -45114,7 +45717,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -45129,7 +45732,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>278</v>
       </c>
       <c r="H11" s="4"/>
@@ -45138,7 +45741,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -45158,7 +45761,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -45178,7 +45781,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>283</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -45293,7 +45896,7 @@
       <c r="B2" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>287</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -45314,7 +45917,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -45334,7 +45937,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -45358,7 +45961,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -45377,7 +45980,7 @@
         <v>9.4</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -45385,13 +45988,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
@@ -45402,7 +46005,7 @@
         <v>9.5</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="4" t="s">
         <v>297</v>
       </c>
     </row>
@@ -45410,7 +46013,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -45425,7 +46028,7 @@
         <v>9.6</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -45433,7 +46036,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>301</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -45450,13 +46053,13 @@
         <v>9.7</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="303" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -45471,13 +46074,13 @@
         <v>9.8</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="299" customHeight="1" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>305</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -45496,7 +46099,7 @@
         <v>9.9</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -45504,7 +46107,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -45517,17 +46120,17 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>310</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="270" customHeight="1" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>311</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -45544,7 +46147,7 @@
         <v>9.11</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
